--- a/data/olympic_events.xlsx
+++ b/data/olympic_events.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amirdonyadide/Desktop/Term 2/SOFTWARE ENGINEERING/SE4G-LOCAL/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amirdonyadide/Desktop/SE4G/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E18956C4-7E79-ED4B-8D77-3DF6B360B70E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD1A54DE-A397-6A41-A41A-F5ACC24D6D8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10840" yWindow="2960" windowWidth="28040" windowHeight="17440" xr2:uid="{A965F5BA-C1A1-3D4E-9A23-760803E2E676}"/>
+    <workbookView xWindow="6520" yWindow="2960" windowWidth="28040" windowHeight="17440" xr2:uid="{A965F5BA-C1A1-3D4E-9A23-760803E2E676}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -164,10 +164,10 @@
     <t>Closing Ceremony</t>
   </si>
   <si>
-    <t>game_id</t>
-  </si>
-  <si>
     <t>city_uid</t>
+  </si>
+  <si>
+    <t>fid</t>
   </si>
 </sst>
 </file>
@@ -584,14 +584,14 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="31.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -603,7 +603,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
